--- a/mallar/import/test_startordning/stratordning2.xlsx
+++ b/mallar/import/test_startordning/stratordning2.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\import\test_startordning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1984C302-65D5-4573-A658-91BBB2FF19B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0291B6-6C2C-4A42-A17C-43F5F7BC7FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="521" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12900" tabRatio="521" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
   </bookViews>
   <sheets>
-    <sheet name="startlista" sheetId="9" r:id="rId1"/>
-    <sheet name="startlisteklasser" sheetId="8" r:id="rId2"/>
-    <sheet name="ekipage" sheetId="1" r:id="rId3"/>
-    <sheet name="klasser" sheetId="2" r:id="rId4"/>
-    <sheet name="linförare" sheetId="3" r:id="rId5"/>
-    <sheet name="reservhästar" sheetId="7" r:id="rId6"/>
-    <sheet name="hästar" sheetId="4" r:id="rId7"/>
-    <sheet name="klubbar" sheetId="5" r:id="rId8"/>
-    <sheet name="voltigörer" sheetId="6" r:id="rId9"/>
+    <sheet name="startlista" sheetId="10" r:id="rId1"/>
+    <sheet name="startlista2" sheetId="9" r:id="rId2"/>
+    <sheet name="startlisteklasser" sheetId="8" r:id="rId3"/>
+    <sheet name="ekipage" sheetId="1" r:id="rId4"/>
+    <sheet name="klasser" sheetId="2" r:id="rId5"/>
+    <sheet name="linförare" sheetId="3" r:id="rId6"/>
+    <sheet name="reservhästar" sheetId="7" r:id="rId7"/>
+    <sheet name="hästar" sheetId="4" r:id="rId8"/>
+    <sheet name="klubbar" sheetId="5" r:id="rId9"/>
+    <sheet name="voltigörer" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="407">
   <si>
     <t>Linda Jenvall</t>
   </si>
@@ -752,29 +753,524 @@
   </si>
   <si>
     <t>My_Lindström</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Veterinärbesiktning</t>
+  </si>
+  <si>
+    <t>675560</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>36847</t>
+  </si>
+  <si>
+    <t>264133</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>115495</t>
+  </si>
+  <si>
+    <t>177357</t>
+  </si>
+  <si>
+    <t>39162</t>
+  </si>
+  <si>
+    <t>342703</t>
+  </si>
+  <si>
+    <t>1330</t>
+  </si>
+  <si>
+    <t>51513</t>
+  </si>
+  <si>
+    <t>675563</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>39883</t>
+  </si>
+  <si>
+    <t>310234</t>
+  </si>
+  <si>
+    <t>109403</t>
+  </si>
+  <si>
+    <t>869</t>
+  </si>
+  <si>
+    <t>106236</t>
+  </si>
+  <si>
+    <t>65038</t>
+  </si>
+  <si>
+    <t>293760</t>
+  </si>
+  <si>
+    <t>120827</t>
+  </si>
+  <si>
+    <t>56148</t>
+  </si>
+  <si>
+    <t>294359</t>
+  </si>
+  <si>
+    <t>96828</t>
+  </si>
+  <si>
+    <t>49704</t>
+  </si>
+  <si>
+    <t>334748</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>675556</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>293254</t>
+  </si>
+  <si>
+    <t>82882</t>
+  </si>
+  <si>
+    <t>182163</t>
+  </si>
+  <si>
+    <t>119893</t>
+  </si>
+  <si>
+    <t>163943</t>
+  </si>
+  <si>
+    <t>124472</t>
+  </si>
+  <si>
+    <t>171661</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>675557</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>285918</t>
+  </si>
+  <si>
+    <t>1198</t>
+  </si>
+  <si>
+    <t>108087</t>
+  </si>
+  <si>
+    <t>134138</t>
+  </si>
+  <si>
+    <t>129079</t>
+  </si>
+  <si>
+    <t>178539</t>
+  </si>
+  <si>
+    <t>129688</t>
+  </si>
+  <si>
+    <t>178209</t>
+  </si>
+  <si>
+    <t>68838</t>
+  </si>
+  <si>
+    <t>308300</t>
+  </si>
+  <si>
+    <t>164089</t>
+  </si>
+  <si>
+    <t>105337</t>
+  </si>
+  <si>
+    <t>129183</t>
+  </si>
+  <si>
+    <t>140351</t>
+  </si>
+  <si>
+    <t>127857</t>
+  </si>
+  <si>
+    <t>108189</t>
+  </si>
+  <si>
+    <t>Svår klass individuella klass  3, 4, 5, 6, 7, 8 , 9 – Grund/tekn kür</t>
+  </si>
+  <si>
+    <t>675562</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>40552</t>
+  </si>
+  <si>
+    <t>347476</t>
+  </si>
+  <si>
+    <t>800106236</t>
+  </si>
+  <si>
+    <t>675564</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>134608</t>
+  </si>
+  <si>
+    <t>312598</t>
+  </si>
+  <si>
+    <t>101580</t>
+  </si>
+  <si>
+    <t>675566</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>169475</t>
+  </si>
+  <si>
+    <t>675565</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>77610</t>
+  </si>
+  <si>
+    <t>345893</t>
+  </si>
+  <si>
+    <t>308238</t>
+  </si>
+  <si>
+    <t>150091</t>
+  </si>
+  <si>
+    <t>69830</t>
+  </si>
+  <si>
+    <t>95073</t>
+  </si>
+  <si>
+    <t>279357</t>
+  </si>
+  <si>
+    <t>172585</t>
+  </si>
+  <si>
+    <t>900293760</t>
+  </si>
+  <si>
+    <t>145224</t>
+  </si>
+  <si>
+    <t>155140</t>
+  </si>
+  <si>
+    <t>145200</t>
+  </si>
+  <si>
+    <t>675561</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>280330</t>
+  </si>
+  <si>
+    <t>101407</t>
+  </si>
+  <si>
+    <t>164010</t>
+  </si>
+  <si>
+    <t>171787</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Mixklass klass 12, 13</t>
+  </si>
+  <si>
+    <t>675570</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>24976</t>
+  </si>
+  <si>
+    <t>316201</t>
+  </si>
+  <si>
+    <t>128938</t>
+  </si>
+  <si>
+    <t>164698</t>
+  </si>
+  <si>
+    <t>181877</t>
+  </si>
+  <si>
+    <t>675569</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>39527</t>
+  </si>
+  <si>
+    <t>328098</t>
+  </si>
+  <si>
+    <t>107737</t>
+  </si>
+  <si>
+    <t>120375</t>
+  </si>
+  <si>
+    <t>155915</t>
+  </si>
+  <si>
+    <t>155903</t>
+  </si>
+  <si>
+    <t>82678</t>
+  </si>
+  <si>
+    <t>164696</t>
+  </si>
+  <si>
+    <t>133914</t>
+  </si>
+  <si>
+    <t>177215</t>
+  </si>
+  <si>
+    <t>188032</t>
+  </si>
+  <si>
+    <t>182138</t>
+  </si>
+  <si>
+    <t>182220</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>675572</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>128140</t>
+  </si>
+  <si>
+    <t>182200</t>
+  </si>
+  <si>
+    <t>182203</t>
+  </si>
+  <si>
+    <t>188044</t>
+  </si>
+  <si>
+    <t>195126</t>
+  </si>
+  <si>
+    <t>195102</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>195029</t>
+  </si>
+  <si>
+    <t>195002</t>
+  </si>
+  <si>
+    <t>195071</t>
+  </si>
+  <si>
+    <t>194941</t>
+  </si>
+  <si>
+    <t>194944</t>
+  </si>
+  <si>
+    <t>195003</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>186744</t>
+  </si>
+  <si>
+    <t>186781</t>
+  </si>
+  <si>
+    <t>195012</t>
+  </si>
+  <si>
+    <t>186646</t>
+  </si>
+  <si>
+    <t>186751</t>
+  </si>
+  <si>
+    <t>34557</t>
+  </si>
+  <si>
+    <t>262992</t>
+  </si>
+  <si>
+    <t>190915</t>
+  </si>
+  <si>
+    <t>190914</t>
+  </si>
+  <si>
+    <t>178065</t>
+  </si>
+  <si>
+    <t>172842</t>
+  </si>
+  <si>
+    <t>195019</t>
+  </si>
+  <si>
+    <t>195035</t>
+  </si>
+  <si>
+    <t>675573</t>
+  </si>
+  <si>
+    <t>186888</t>
+  </si>
+  <si>
+    <t>171512</t>
+  </si>
+  <si>
+    <t>190728</t>
+  </si>
+  <si>
+    <t>195094</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>675574</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>190842</t>
+  </si>
+  <si>
+    <t>168291</t>
+  </si>
+  <si>
+    <t>326135</t>
+  </si>
+  <si>
+    <t>152290</t>
+  </si>
+  <si>
+    <t>39667</t>
+  </si>
+  <si>
+    <t>900342894</t>
+  </si>
+  <si>
+    <t>986</t>
+  </si>
+  <si>
+    <t>155124</t>
+  </si>
+  <si>
+    <t>675575</t>
+  </si>
+  <si>
+    <t>195030</t>
+  </si>
+  <si>
+    <t>195046</t>
+  </si>
+  <si>
+    <t>342894</t>
+  </si>
+  <si>
+    <t>169428</t>
+  </si>
+  <si>
+    <t>172127</t>
+  </si>
+  <si>
+    <t>169429</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Svår klass individuella klass 3, 4, 5, 6, 7, 8, 9  – Kür</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -784,10 +1280,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -816,7 +1311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -827,18 +1322,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1152,833 +1637,5292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA71015-A881-4F64-B878-D52C5899206A}">
-  <dimension ref="A1:W19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EE96E0-6918-491B-B342-DCEED6C28E5D}">
+  <dimension ref="A1:W110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A31" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A32" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A33" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A34" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A35" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A36" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A37" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A38" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A39" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A40" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A41" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A42" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A43" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A44" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A45" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A46" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V46" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A47" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V47" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="W47" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A48" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A49" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A50" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="V50" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A51" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="V51" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="W51" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A52" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="U52" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="V52" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A53" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T53" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="U53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="V53" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="W53" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A54" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A55" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="T55" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="U55" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A56" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="U56" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="V56" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="W56" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A57" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T57" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="U57" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="V57" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="W57" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A58" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A59" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R59" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="S59" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A60" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A61" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A62" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A63" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A64" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A65" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A66" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A67" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A68" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A69" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A70" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A71" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A72" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A73" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A74" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A75" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A76" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A77" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A78" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A79" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A80" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P80" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R80" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="S80" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T80" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="U80" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="V80" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="W80" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A81" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A82" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P82" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q82" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R82" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="S82" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T82" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="U82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V82" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="W82" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A83" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="O83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P83" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q83" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R83" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="S83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T83" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="U83" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V83" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="W83" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A84" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A85" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="M85" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A86" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A87" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A88" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A89" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A90" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A91" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A92" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A93" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="M93" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A94" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A95" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="M95" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A96" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A97" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="M97" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A98" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A99" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A100" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="M100" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A101" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="M101" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A102" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="M102" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A103" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="M103" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A104" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="M104" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A105" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="M105" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A106" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="M106" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A107" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="M107" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A108" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="M108" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A109" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="M109" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A110" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5152B9-B788-4BDE-A1B2-C618945E4F4F}">
+  <dimension ref="A1:C91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="50.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.19921875" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A1" s="4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>155124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>182163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>172585</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>164696</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>190914</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>96828</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>195029</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>182200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>133914</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>82882</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>169428</v>
+      </c>
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>115495</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>195019</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>124472</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>182138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>120375</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>155140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>129688</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>164698</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>177215</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>195030</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>195002</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>186744</v>
+      </c>
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>195094</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>128938</v>
+      </c>
+      <c r="B25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>182330</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>150091</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>51513</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>186781</v>
+      </c>
+      <c r="B29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>178062</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>195035</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>164089</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>145224</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>188032</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>155915</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>82678</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>155903</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>178539</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>195046</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>195126</v>
+      </c>
+      <c r="B41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>186646</v>
+      </c>
+      <c r="B42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>171787</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>190915</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>101580</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>194944</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>134608</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>107737</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>169429</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>152290</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>195012</v>
+      </c>
+      <c r="B51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>145200</v>
+      </c>
+      <c r="B52" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>675556</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2">
-        <v>36847</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>293254</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
+      <c r="C52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>108189</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>120827</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>105337</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>190728</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>140351</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>195071</v>
+      </c>
+      <c r="B58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>171512</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>169475</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
         <v>223</v>
       </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L2">
-        <v>82882</v>
-      </c>
-      <c r="M2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2">
-        <v>182163</v>
-      </c>
-      <c r="O2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>188044</v>
+      </c>
+      <c r="B61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>181877</v>
+      </c>
+      <c r="B62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>106236</v>
+      </c>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>194941</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>168291</v>
+      </c>
+      <c r="B65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>69830</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67">
         <v>119893</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="B67" t="s">
         <v>82</v>
       </c>
-      <c r="R2">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>172842</v>
+      </c>
+      <c r="B68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>178744</v>
+      </c>
+      <c r="B69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>129079</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>177357</v>
+      </c>
+      <c r="B71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>178209</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>134138</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>195003</v>
+      </c>
+      <c r="B74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>109403</v>
+      </c>
+      <c r="B75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>108087</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>186751</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>178065</v>
+      </c>
+      <c r="B78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>182220</v>
+      </c>
+      <c r="B79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>186888</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>101407</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>171661</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>129183</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>164010</v>
+      </c>
+      <c r="B84" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>172127</v>
+      </c>
+      <c r="B85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>190842</v>
+      </c>
+      <c r="B86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>127857</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>195102</v>
+      </c>
+      <c r="B88" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89">
         <v>163943</v>
       </c>
-      <c r="S2" t="s">
+      <c r="B89" t="s">
         <v>83</v>
       </c>
-      <c r="T2">
-        <v>124472</v>
-      </c>
-      <c r="U2" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2">
-        <v>171661</v>
-      </c>
-      <c r="W2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>675557</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3">
-        <v>39883</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3">
-        <v>285918</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>1198</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" t="s">
-        <v>190</v>
-      </c>
-      <c r="L3">
-        <v>108087</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3">
-        <v>134138</v>
-      </c>
-      <c r="O3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3">
-        <v>129079</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3">
-        <v>178539</v>
-      </c>
-      <c r="S3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3">
-        <v>129688</v>
-      </c>
-      <c r="U3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3">
-        <v>178209</v>
-      </c>
-      <c r="W3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>675557</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4">
-        <v>68838</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>308300</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4">
-        <v>1330</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K4" t="s">
-        <v>191</v>
-      </c>
-      <c r="L4">
-        <v>164089</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4">
-        <v>105337</v>
-      </c>
-      <c r="O4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4">
-        <v>129183</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4">
-        <v>140351</v>
-      </c>
-      <c r="S4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4">
-        <v>127857</v>
-      </c>
-      <c r="U4" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4">
-        <v>108189</v>
-      </c>
-      <c r="W4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>675560</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6">
-        <v>39162</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6">
-        <v>342703</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6">
-        <v>1330</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6">
-        <v>51513</v>
-      </c>
-      <c r="M6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>675562</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7">
-        <v>40552</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>347476</v>
-      </c>
-      <c r="G7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7">
-        <v>869</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L7">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>182203</v>
+      </c>
+      <c r="B90" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91">
         <v>800106236</v>
       </c>
-      <c r="M7" t="s">
+      <c r="B91" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>675564</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8">
-        <v>40552</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>347476</v>
-      </c>
-      <c r="G8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H8">
-        <v>223</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>138</v>
-      </c>
-      <c r="L8">
-        <v>134608</v>
-      </c>
-      <c r="M8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>675560</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9">
-        <v>39162</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9">
-        <v>342703</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9">
-        <v>1330</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" t="s">
-        <v>132</v>
-      </c>
-      <c r="L9">
-        <v>51513</v>
-      </c>
-      <c r="M9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>675564</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10">
-        <v>65038</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <v>312598</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10">
-        <v>223</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>101580</v>
-      </c>
-      <c r="M10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A11" s="4">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>675562</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12">
-        <v>40552</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>347476</v>
-      </c>
-      <c r="G12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12">
-        <v>869</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" t="s">
-        <v>135</v>
-      </c>
-      <c r="L12">
-        <v>800106236</v>
-      </c>
-      <c r="M12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>675564</v>
-      </c>
-      <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13">
-        <v>40552</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>347476</v>
-      </c>
-      <c r="G13" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13">
-        <v>223</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>138</v>
-      </c>
-      <c r="L13">
-        <v>134608</v>
-      </c>
-      <c r="M13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>675560</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14">
-        <v>39162</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14">
-        <v>342703</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14">
-        <v>1330</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14">
-        <v>51513</v>
-      </c>
-      <c r="M14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>675564</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15">
-        <v>65038</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15">
-        <v>312598</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15">
-        <v>223</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>101580</v>
-      </c>
-      <c r="M15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>7</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16">
-        <v>675556</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>675556</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17">
-        <v>36847</v>
-      </c>
-      <c r="E17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>293254</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17">
-        <v>223</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K17" t="s">
-        <v>197</v>
-      </c>
-      <c r="L17">
-        <v>82882</v>
-      </c>
-      <c r="M17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N17">
-        <v>182163</v>
-      </c>
-      <c r="O17" t="s">
-        <v>44</v>
-      </c>
-      <c r="P17">
-        <v>119893</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>82</v>
-      </c>
-      <c r="R17">
-        <v>163943</v>
-      </c>
-      <c r="S17" t="s">
-        <v>83</v>
-      </c>
-      <c r="T17">
-        <v>124472</v>
-      </c>
-      <c r="U17" t="s">
-        <v>84</v>
-      </c>
-      <c r="V17">
-        <v>171661</v>
-      </c>
-      <c r="W17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>675557</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18">
-        <v>39883</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18">
-        <v>285918</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18">
-        <v>1198</v>
-      </c>
-      <c r="I18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" t="s">
-        <v>130</v>
-      </c>
-      <c r="K18" t="s">
-        <v>190</v>
-      </c>
-      <c r="L18">
-        <v>108087</v>
-      </c>
-      <c r="M18" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18">
-        <v>134138</v>
-      </c>
-      <c r="O18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18">
-        <v>129079</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18">
-        <v>178539</v>
-      </c>
-      <c r="S18" t="s">
-        <v>47</v>
-      </c>
-      <c r="T18">
-        <v>129688</v>
-      </c>
-      <c r="U18" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18">
-        <v>178209</v>
-      </c>
-      <c r="W18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>675557</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19">
-        <v>68838</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19">
-        <v>308300</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19">
-        <v>1330</v>
-      </c>
-      <c r="I19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" t="s">
-        <v>131</v>
-      </c>
-      <c r="K19" t="s">
-        <v>191</v>
-      </c>
-      <c r="L19">
-        <v>164089</v>
-      </c>
-      <c r="M19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19">
-        <v>105337</v>
-      </c>
-      <c r="O19" t="s">
-        <v>16</v>
-      </c>
-      <c r="P19">
-        <v>129183</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19">
-        <v>140351</v>
-      </c>
-      <c r="S19" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19">
-        <v>127857</v>
-      </c>
-      <c r="U19" t="s">
-        <v>25</v>
-      </c>
-      <c r="V19">
-        <v>108189</v>
-      </c>
-      <c r="W19" t="s">
-        <v>42</v>
+      <c r="C91" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B90">
+    <sortCondition ref="B1:B90"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA71015-A881-4F64-B878-D52C5899206A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45499A03-2E29-4728-AFAF-B6BD701DE593}">
   <dimension ref="A1:F32"/>
   <sheetViews>
@@ -2637,7 +7581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B3B0E3-2027-4083-B582-AAB0C4C3F786}">
   <dimension ref="A1:W46"/>
   <sheetViews>
@@ -4685,7 +9629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9D28CB-C6E2-4B8D-9091-1FD20615DBE1}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -4991,7 +9935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB5CEA1-1CE1-4743-9EBE-57C3851E7690}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -5130,7 +10074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BA6F6B-AC62-438F-ADA1-73868A8D26DB}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -5156,7 +10100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E50BA4F-C9F6-4C5B-8947-232726082284}">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -5359,7 +10303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9127C6F2-EC51-4670-8080-B1754AF093BC}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -5453,850 +10397,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5152B9-B788-4BDE-A1B2-C618945E4F4F}">
-  <dimension ref="A1:C91"/>
-  <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:B91"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1">
-        <v>155124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>182163</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>172585</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>164696</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>190914</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>96828</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>195029</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>182200</v>
-      </c>
-      <c r="B8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>133914</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>82882</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>169428</v>
-      </c>
-      <c r="B11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>115495</v>
-      </c>
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>195019</v>
-      </c>
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>124472</v>
-      </c>
-      <c r="B14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>182138</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>120375</v>
-      </c>
-      <c r="B16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>155140</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>129688</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>164698</v>
-      </c>
-      <c r="B19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>177215</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>195030</v>
-      </c>
-      <c r="B21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>195002</v>
-      </c>
-      <c r="B22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>186744</v>
-      </c>
-      <c r="B23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>195094</v>
-      </c>
-      <c r="B24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>128938</v>
-      </c>
-      <c r="B25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>182330</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>150091</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>51513</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>186781</v>
-      </c>
-      <c r="B29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>178062</v>
-      </c>
-      <c r="B30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>195035</v>
-      </c>
-      <c r="B31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>164089</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>145224</v>
-      </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>188032</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>155915</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>82678</v>
-      </c>
-      <c r="B36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>155903</v>
-      </c>
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>178539</v>
-      </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>100</v>
-      </c>
-      <c r="B39" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>195046</v>
-      </c>
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>195126</v>
-      </c>
-      <c r="B41" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>186646</v>
-      </c>
-      <c r="B42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>171787</v>
-      </c>
-      <c r="B43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>190915</v>
-      </c>
-      <c r="B44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>101580</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>194944</v>
-      </c>
-      <c r="B46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>134608</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>107737</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>169429</v>
-      </c>
-      <c r="B49" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>152290</v>
-      </c>
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>195012</v>
-      </c>
-      <c r="B51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>145200</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>108189</v>
-      </c>
-      <c r="B53" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>120827</v>
-      </c>
-      <c r="B54" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>105337</v>
-      </c>
-      <c r="B55" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>190728</v>
-      </c>
-      <c r="B56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <v>140351</v>
-      </c>
-      <c r="B57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <v>195071</v>
-      </c>
-      <c r="B58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <v>171512</v>
-      </c>
-      <c r="B59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60">
-        <v>169475</v>
-      </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61">
-        <v>188044</v>
-      </c>
-      <c r="B61" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62">
-        <v>181877</v>
-      </c>
-      <c r="B62" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <v>106236</v>
-      </c>
-      <c r="B63" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <v>194941</v>
-      </c>
-      <c r="B64" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <v>168291</v>
-      </c>
-      <c r="B65" t="s">
-        <v>115</v>
-      </c>
-      <c r="C65" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <v>69830</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <v>119893</v>
-      </c>
-      <c r="B67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68">
-        <v>172842</v>
-      </c>
-      <c r="B68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <v>178744</v>
-      </c>
-      <c r="B69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70">
-        <v>129079</v>
-      </c>
-      <c r="B70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71">
-        <v>177357</v>
-      </c>
-      <c r="B71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72">
-        <v>178209</v>
-      </c>
-      <c r="B72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73">
-        <v>134138</v>
-      </c>
-      <c r="B73" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74">
-        <v>195003</v>
-      </c>
-      <c r="B74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75">
-        <v>109403</v>
-      </c>
-      <c r="B75" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76">
-        <v>108087</v>
-      </c>
-      <c r="B76" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77">
-        <v>186751</v>
-      </c>
-      <c r="B77" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78">
-        <v>178065</v>
-      </c>
-      <c r="B78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79">
-        <v>182220</v>
-      </c>
-      <c r="B79" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80">
-        <v>186888</v>
-      </c>
-      <c r="B80" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81">
-        <v>101407</v>
-      </c>
-      <c r="B81" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82">
-        <v>171661</v>
-      </c>
-      <c r="B82" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83">
-        <v>129183</v>
-      </c>
-      <c r="B83" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84">
-        <v>164010</v>
-      </c>
-      <c r="B84" t="s">
-        <v>41</v>
-      </c>
-      <c r="C84" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85">
-        <v>172127</v>
-      </c>
-      <c r="B85" t="s">
-        <v>159</v>
-      </c>
-      <c r="C85" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86">
-        <v>190842</v>
-      </c>
-      <c r="B86" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87">
-        <v>127857</v>
-      </c>
-      <c r="B87" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88">
-        <v>195102</v>
-      </c>
-      <c r="B88" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89">
-        <v>163943</v>
-      </c>
-      <c r="B89" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90">
-        <v>182203</v>
-      </c>
-      <c r="B90" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91">
-        <v>800106236</v>
-      </c>
-      <c r="B91" t="s">
-        <v>236</v>
-      </c>
-      <c r="C91" t="s">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B90">
-    <sortCondition ref="B1:B90"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>